--- a/Projects/Project 0/Project/ProjectDelliveryCart/Schedule.xlsx
+++ b/Projects/Project 0/Project/ProjectDelliveryCart/Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Schedule" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Customer</t>
   </si>
@@ -25,13 +25,16 @@
     <t>Yearly</t>
   </si>
   <si>
+    <t>Today</t>
+  </si>
+  <si>
     <t>Vendor</t>
   </si>
   <si>
     <t>Montly</t>
   </si>
   <si>
-    <t>Today</t>
+    <t>Daily</t>
   </si>
 </sst>
 </file>
@@ -69,15 +72,13 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -297,62 +298,70 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="15.86"/>
+    <col customWidth="1" min="1" max="6" width="15.86"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="2"/>
+    </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="14" ht="15.75" customHeight="1"/>
     <row r="15" ht="15.75" customHeight="1"/>
     <row r="16" ht="15.75" customHeight="1"/>
